--- a/工作簿2.xlsx
+++ b/工作簿2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503639AC-41CB-476C-AC0E-AA15058162B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>遥测名称</t>
   </si>
@@ -59,14 +53,21 @@
   </si>
   <si>
     <r>
-      <t>-0.1</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-0.1</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>°</t>
     </r>
@@ -84,10 +85,20 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>°</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
   <si>
     <t>SP8</t>
@@ -108,9 +119,6 @@
     <t>RKSA2</t>
   </si>
   <si>
-    <t>1.1-2</t>
-  </si>
-  <si>
     <t>RKSA3</t>
   </si>
   <si>
@@ -127,14 +135,21 @@
   </si>
   <si>
     <r>
-      <t>-10</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-10</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>°</t>
     </r>
@@ -152,10 +167,20 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>°</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
   <si>
     <t>1.2-1</t>
@@ -188,7 +213,7 @@
     <t>RKSC11</t>
   </si>
   <si>
-    <t>0.05~0.13</t>
+    <t>[0.05~0.13]</t>
   </si>
   <si>
     <t>2.1-1</t>
@@ -233,8 +258,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +276,157 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,7 +435,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -261,22 +443,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -299,17 +661,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -327,17 +934,61 @@
       <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -595,31 +1246,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
-    <col min="5" max="6" width="10.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.2" customWidth="1"/>
+    <col min="2" max="2" width="14.6" customWidth="1"/>
+    <col min="3" max="3" width="14.9" customWidth="1"/>
+    <col min="4" max="4" width="12.6" customWidth="1"/>
+    <col min="5" max="6" width="10.1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="11.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,20 +1302,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1">
@@ -682,27 +1333,27 @@
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -719,66 +1370,66 @@
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -794,26 +1445,26 @@
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
@@ -829,26 +1480,26 @@
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -864,36 +1515,36 @@
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -901,36 +1552,36 @@
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -938,36 +1589,36 @@
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <v>5</v>
@@ -975,21 +1626,21 @@
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -999,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
@@ -1010,21 +1661,21 @@
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1034,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1">
         <v>5</v>
@@ -1045,226 +1696,226 @@
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1">
         <v>0.05</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1">
         <v>0.05</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1">
         <v>0.05</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1">
         <v>0.05</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1">
         <v>0.05</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1272,82 +1923,82 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+    <row r="18" spans="9:20">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+    <row r="19" spans="9:20">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+    <row r="20" spans="9:20">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+    <row r="21" spans="9:20">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/工作簿2.xlsx
+++ b/工作簿2.xlsx
@@ -261,8 +261,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -282,7 +282,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +336,82 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,132 +425,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,13 +453,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,31 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,121 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,17 +662,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,54 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -751,11 +745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,148 +764,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="15.6"/>
